--- a/docs/tp/motor/Libri Matricola.xlsx
+++ b/docs/tp/motor/Libri Matricola.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8FFDC-C02F-4D4E-A6D1-6DCE24B8DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC785C-A7F2-4886-BA51-512F054883DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="111">
   <si>
     <t>Design</t>
   </si>
@@ -77,49 +77,332 @@
     <t>Area Path</t>
   </si>
   <si>
-    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Clients</t>
-  </si>
-  <si>
-    <t>Anagrafe</t>
-  </si>
-  <si>
     <t>Pusateri Kevin (Leased Employed)</t>
   </si>
   <si>
-    <t>Verificare che l'indirizzo sia stato eliminato correttamente nella tabella</t>
-  </si>
-  <si>
-    <t>LIBRI MATRICOLA - Preventivo Madre - Ricerca Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIBRI MATRICOLA - Preventivo Madre - </t>
-  </si>
-  <si>
-    <t>Ricerca di un Cliente Random PG -&gt; Entra in scheda Cliente</t>
-  </si>
-  <si>
-    <t>LIBRI MATRICOLA - Preventivo Madre - Nuovo Preventivo Madre</t>
-  </si>
-  <si>
     <t>Accedi da Auto -&gt; Prodotti Particolari -&gt; Libri Matricola</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Elenco </t>
-  </si>
-  <si>
-    <t>MW: LIBRI MATRICOLA - Preventivo Madre - Ricerca Cliente</t>
-  </si>
-  <si>
-    <t>MW: LIBRI MATRICOLA - Preventivo Madre - Libri Matricola da Sintesi Cliente</t>
-  </si>
-  <si>
-    <t>MW: LIBRI MATRICOLA - Preventivo Madre - Nuovo Preventivo Madre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW: LIBRI MATRICOLA - Preventivo Madre - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifica </t>
+    <t>Verifica atterraggio alla pagina</t>
+  </si>
+  <si>
+    <t>Click Avanti</t>
+  </si>
+  <si>
+    <t>Click button Nuovo:
+- Inserisci Data e numero della Convenzione
+- Inserisci Numero Convenzione
+Click button OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica alla pagina Contraente </t>
+  </si>
+  <si>
+    <t>Verifica Convenzione sia presente
+e Atterraggio Dati Integrativi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica atterraggio al Riepilogo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica Coperture presenti e atterraggio corretto su Integrazione </t>
+  </si>
+  <si>
+    <t>Click su Emetti preventivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica esecuzione dell'Emissione Preventivo  </t>
+  </si>
+  <si>
+    <t>Contratto effettuato correttamente</t>
+  </si>
+  <si>
+    <t>Salvataggio Contratto Preventivo effettuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricerca di un Cliente Random PG -&gt; Entra in scheda Cliente </t>
+  </si>
+  <si>
+    <t>Verifica atterraggio cliente e Salvataggio del Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Home -&gt; Popup click si -&gt; Click Tab Preventivi -&gt; Verifica presenza del contratto Preventivo Madre </t>
+  </si>
+  <si>
+    <t>Preventivo Madre corretto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Tab Preventivi -&gt; Click Elenco Applicazioni </t>
+  </si>
+  <si>
+    <t>Atterraggio Elenco applicazioni</t>
+  </si>
+  <si>
+    <t>Click Button Nuovo</t>
+  </si>
+  <si>
+    <t>Apertura Popup Convenzioni</t>
+  </si>
+  <si>
+    <t>Click Tab Preventivi -&gt; Click Elenco Applicazioni</t>
+  </si>
+  <si>
+    <t>Atterraggio Scheda Veicolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica atterraggio Scheda Contraente  </t>
+  </si>
+  <si>
+    <t>Verifica Caricamento pagina Prodotto Provenienza</t>
+  </si>
+  <si>
+    <t>Seleziona Tipo: Auto
+Ricerca Targa/Telaio: WW745FF
+Seleziona Marca: Volvo
+Seleziona Modello: C70 (2005-2013)
+Seleziona versione: C70 2.4 20V 170 CV MOMENTUM (DAL 2005/09)
+Seleziona data Immatricolazione: 01/04/2022
+Inserisci Numero Posti: 5
+Click Avanti</t>
+  </si>
+  <si>
+    <t>Seleziona Con copertura R.C.A
+- Proveniena -&gt; Prima Immatricolazione -&gt; Dispone di documentazione
+Click Avanti</t>
+  </si>
+  <si>
+    <t>Seleziona Garanzia Richiesta: Furto 
+Click Avanti</t>
+  </si>
+  <si>
+    <t>Caricamento Scheda Integrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caricamento Scheda Riepilogo </t>
+  </si>
+  <si>
+    <t>Click Emetti Preventivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Home -&gt; Popup click si -&gt; Click Tab Preventivi -&gt; Verifica presenza del contratto Preventivo Applicazione </t>
+  </si>
+  <si>
+    <t>Preventivo Applicazione corretto</t>
+  </si>
+  <si>
+    <t>Seleziona Tipo: Auto
+Ricerca Targa/Telaio: ZZ841PP
+Seleziona Marca: AUDI
+Seleziona Modello: A4 5ª SERIE
+Seleziona versione: A4 1.4 TFSI BUSINESS SPORT (DAL 2015/08)
+Seleziona data Immatricolazione: 01/04/2022
+Inserisci Numero Posti: 5
+Click Avanti</t>
+  </si>
+  <si>
+    <t>Valutazione Adeguatezza di Polizza -&gt; Seleziona No
+Click Avanti</t>
+  </si>
+  <si>
+    <t>Caricamento Riepilogo</t>
+  </si>
+  <si>
+    <t>Caricamento Integrazione</t>
+  </si>
+  <si>
+    <t>Click Emetti Polizza</t>
+  </si>
+  <si>
+    <t>Caricamento Consensi</t>
+  </si>
+  <si>
+    <t>Click Privacy per scopi assicurativi: Si
+Intermediario Seleziona Agenzia Random
+Set Informativo - Visualizza
+Allegato 3 - Visualizza
+Allegato 4 - Visualizza
+Riepilogo delle richieste - Visualizza 
+Click Emetti Polizza</t>
+  </si>
+  <si>
+    <t>Caricamento Contratto Salvataggio</t>
+  </si>
+  <si>
+    <t>Salvataggio Contratto effettuato
+Click Stampa Adempimenti Informativo
+Click Stampa Documentazione Raccolte firme</t>
+  </si>
+  <si>
+    <t>1. Contratto Salavato correttamente
+2. Stampa Adempimenti operazione conclusa
+3. Stampa Documentazione raccoolta firme conclusa</t>
+  </si>
+  <si>
+    <t>Da Elenco Preventivi Applicazioni -&gt; Conferma tutti i preventivi -&gt; Torna A Elenco Preventivi -&gt; Tasto Destro -&gt; Link Accesso Preventivo Polizza Madre -&gt; Inserire Data Default -&gt; Click Conferma</t>
+  </si>
+  <si>
+    <t>Apertura Tab Libri Matricola -&gt; Verifica la presenza del contratto salvato nell'elenco</t>
+  </si>
+  <si>
+    <t>Contratto presente nell'elenco</t>
+  </si>
+  <si>
+    <t>MW: LM - 1 Preventivo Madre (1) - Ricerca Cliente</t>
+  </si>
+  <si>
+    <t>MW: LM - 2 Preventivo Madre  (1) - Libri Matricola</t>
+  </si>
+  <si>
+    <t>MW: LM - 3 Preventivo Madre  (1) - Nuovo Preventivo Madre</t>
+  </si>
+  <si>
+    <t>MW: LM - 4 Preventivo Madre (1) - Dati integrativi</t>
+  </si>
+  <si>
+    <t>MW: LM - 5 Preventivo Madre  (1) - Contraente</t>
+  </si>
+  <si>
+    <t>MW: LM - 6 Preventivo Madre  (1) - Riepilogo</t>
+  </si>
+  <si>
+    <t>MW: LM - 7 Preventivo Madre  (1) - Integrazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 8 Preventivo Madre  (1) - Contratto Finale</t>
+  </si>
+  <si>
+    <t>MW: LM - 9 Preventivo Madre  (1) - Verifica Presenza preventivo Madre</t>
+  </si>
+  <si>
+    <t>MW: LM - 10 Preventivo Applicazione  (2) - Elenco applicazioni</t>
+  </si>
+  <si>
+    <t>MW: LM - 11 Preventivo Applicazione  (2)- Nuovo preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 12 Preventivo Applicazione (2) - Dati Amministrativi</t>
+  </si>
+  <si>
+    <t>MW: LM - 13 Preventivo Applicazione (2) - Contraente/Proprietario</t>
+  </si>
+  <si>
+    <t>MW: LM - 14 Preventivo Applicazione (2)- Veicolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW: LM - 15 Preventivo Applicazione (2) - Selezione provenienza </t>
+  </si>
+  <si>
+    <t>MW: LM - 16 Preventivo Applicazione (2) - Riepilogo</t>
+  </si>
+  <si>
+    <t>MW: LM - 17 Preventivo Applicazione (2) - Integrazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 18 Preventivo Applicazione (2) - Contratto Finale</t>
+  </si>
+  <si>
+    <t>MW: LM - 19 Preventivo Applicazione (2) - Verifica presenza preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 21 Preventivo Applicazione (3) - Dati Amministrativi</t>
+  </si>
+  <si>
+    <t>MW: LM - 20 Preventivo Applicazione (3) Nuovo Preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 22 Preventivo Applicazione (3) - Contraente/Proprietario</t>
+  </si>
+  <si>
+    <t>MW: LM - 23 Preventivo Applicazione (3) - Veicolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW: LM - 24 Preventivo Applicazione (3) - Selezione provenienza </t>
+  </si>
+  <si>
+    <t>MW: LM - 25 Preventivo Applicazione (3) - Riepilogo</t>
+  </si>
+  <si>
+    <t>MW: LM - 26 Preventivo Applicazione (3) - Integrazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 27 Preventivo Applicazione (3) - Contratto Finale</t>
+  </si>
+  <si>
+    <t>MW: LM - 28 Preventivo Applicazione (3) - Verifica presenza preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 29 Preventivo Applicazione (4) - Nuovo preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 30 Preventivo Applicazione (4) - Dati Amministrativi</t>
+  </si>
+  <si>
+    <t>MW: LM - 31 Preventivo Applicazione (4) - Contraente/Proprietario</t>
+  </si>
+  <si>
+    <t>MW: LM - 32 Preventivo Applicazione (4) - Veicolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW: LM - 33 Preventivo Applicazione (4) - Selezione provenienza </t>
+  </si>
+  <si>
+    <t>MW: LM - 34 Preventivo Applicazione (4) - Riepilogo</t>
+  </si>
+  <si>
+    <t>MW: LM - 35 Preventivo Applicazione (4) - Integrazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 36 Preventivo Applicazione (4) - Contratto Finale</t>
+  </si>
+  <si>
+    <t>MW: LM - 37 Preventivo Applicazione (4) - Verifica presenza preventivo applicazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 38 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Conferma preventivi</t>
+  </si>
+  <si>
+    <t>MW: LM - 39 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Riepilogo</t>
+  </si>
+  <si>
+    <t>MW: LM - 40 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Integrazione</t>
+  </si>
+  <si>
+    <t>MW: LM - 41 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Consensi</t>
+  </si>
+  <si>
+    <t>MW: LM - 42 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Contratto Finale</t>
+  </si>
+  <si>
+    <t>MW: LM - 43 Conferma Preventivi Applicazione e Conversione Polizza Madre (5) - Verifica Presenza Contratto Libro Matricola</t>
+  </si>
+  <si>
+    <t>MW: LM - 44 Conversione e Stampa Massiva Preventivi Applicazione (6) - Conversione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasto destro sul contratto libro Matricola -&gt; Click link Accesso a elenco Preventivi Applicazioni -&gt; Converti tutti i preventivi -&gt; Popup Stampa massiva click su Procedi -&gt; Stampa -&gt; Popup Stampa Applicazioni Conclusa: Click Ok -&gt; Accedi al Tab Elenco Applicazioni
+</t>
+  </si>
+  <si>
+    <t>Caricamento Pagina Elenco Preventivi Applicazioni.
+Conversione completata
+Stampa massiva operazione conclusa correttamente
+Contratti presenti su Elenco Applicazioni</t>
+  </si>
+  <si>
+    <t>Caricamento Pagina Pagamento di inizio incasso.
+Elaborazione incasso e creazione stampa completati</t>
+  </si>
+  <si>
+    <t>Tasto Destro Contratto Libro Matricola -&gt; Link Incasso Polizza Madre -&gt; Click Incassa -&gt; di nuovo Incassa -&gt; Chiudi</t>
+  </si>
+  <si>
+    <t>MW: LM - 44 Incasso Polizza Madre (7) - Incasso</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Motor</t>
+  </si>
+  <si>
+    <t>Motor</t>
   </si>
 </sst>
 </file>
@@ -548,16 +831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -600,132 +883,1444 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
